--- a/交付物模版/业务交互矩阵.xlsx
+++ b/交付物模版/业务交互矩阵.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>网点柜员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,14 +61,18 @@
   </si>
   <si>
     <t>**购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,17 +199,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -225,6 +229,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -271,7 +283,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -303,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -337,6 +350,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,20 +526,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+    <row r="1" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -533,9 +547,12 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -547,23 +564,23 @@
       </c>
       <c r="E2" s="8"/>
     </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -575,8 +592,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -588,57 +605,57 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -658,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交付物模版/业务交互矩阵.xlsx
+++ b/交付物模版/业务交互矩阵.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>网点柜员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>**购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -195,17 +199,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -513,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -525,7 +529,7 @@
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1">
+    <row r="1" spans="1:7" ht="19.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -534,8 +538,8 @@
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
     </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -546,24 +550,27 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="1"/>
@@ -575,8 +582,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -588,57 +595,57 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:7">
+      <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="6"/>
+    <row r="7" spans="1:7">
+      <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="6"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="6"/>
+    <row r="9" spans="1:7">
+      <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7">
+      <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7">
+      <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="6"/>
+    <row r="12" spans="1:7">
+      <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="6"/>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>

--- a/交付物模版/业务交互矩阵.xlsx
+++ b/交付物模版/业务交互矩阵.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>网点柜员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,14 +69,18 @@
   </si>
   <si>
     <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -233,6 +237,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -279,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,9 +323,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -345,6 +358,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,20 +534,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="10.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="19.5" customHeight="1">
+    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
@@ -545,7 +559,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="19.5" customHeight="1">
+    <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -561,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="23.25" customHeight="1">
+    <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -575,8 +589,11 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -589,7 +606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>2</v>
       </c>
@@ -602,56 +619,56 @@
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="4"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="4"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="4"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="4"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="4"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -672,12 +689,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -686,12 +703,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/交付物模版/业务交互矩阵.xlsx
+++ b/交付物模版/业务交互矩阵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>网点柜员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,10 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +524,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -537,6 +541,9 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="19.5" customHeight="1">
       <c r="A2" s="5" t="s">

--- a/交付物模版/业务交互矩阵.xlsx
+++ b/交付物模版/业务交互矩阵.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="13">
   <si>
     <t>网点柜员</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,10 +61,6 @@
   </si>
   <si>
     <t>**购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -538,7 +534,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -556,7 +552,7 @@
       <c r="D1" s="9"/>
       <c r="E1" s="10"/>
       <c r="F1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -571,9 +567,6 @@
         <v>7</v>
       </c>
       <c r="E2" s="8"/>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6"/>
@@ -590,7 +583,7 @@
         <v>10</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
